--- a/INTLINE/data/144/SCB/FM0001BytBKv.xlsx
+++ b/INTLINE/data/144/SCB/FM0001BytBKv.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
   <x:si>
     <x:t>Balance of Payments. Current account, SEK billions by country group, exports and imports, item and quarter</x:t>
   </x:si>
@@ -552,6 +552,9 @@
   </x:si>
   <x:si>
     <x:t>2021K4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022K1</x:t>
   </x:si>
   <x:si>
     <x:t>total transactions</x:t>
@@ -600,7 +603,7 @@
     <x:t>Latest update:</x:t>
   </x:si>
   <x:si>
-    <x:t>20220304 08:00</x:t>
+    <x:t>20220607 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -1053,21 +1056,21 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:FG68"/>
+  <x:dimension ref="A1:FH68"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="163" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="1" max="164" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:163">
+    <x:row r="1" spans="1:164">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:163">
+    <x:row r="3" spans="1:164">
       <x:c r="D3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -1548,16 +1551,19 @@
       <x:c r="FG3" s="2" t="s">
         <x:v>160</x:v>
       </x:c>
+      <x:c r="FH3" s="2" t="s">
+        <x:v>161</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:163">
+    <x:row r="4" spans="1:164">
       <x:c r="A4" s="2" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D4" s="3" t="n">
         <x:v>-2.6</x:v>
@@ -2016,33 +2022,36 @@
         <x:v>54.1</x:v>
       </x:c>
       <x:c r="EZ4" s="3" t="n">
-        <x:v>82.9</x:v>
+        <x:v>73.3</x:v>
       </x:c>
       <x:c r="FA4" s="3" t="n">
-        <x:v>70.8</x:v>
+        <x:v>70.2</x:v>
       </x:c>
       <x:c r="FB4" s="3" t="n">
-        <x:v>75.5</x:v>
+        <x:v>76.3</x:v>
       </x:c>
       <x:c r="FC4" s="3" t="n">
-        <x:v>73.7</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="FD4" s="3" t="n">
-        <x:v>82.3</x:v>
+        <x:v>76.8</x:v>
       </x:c>
       <x:c r="FE4" s="3" t="n">
-        <x:v>85</x:v>
+        <x:v>78.3</x:v>
       </x:c>
       <x:c r="FF4" s="3" t="n">
-        <x:v>60.8</x:v>
+        <x:v>64.8</x:v>
       </x:c>
       <x:c r="FG4" s="3" t="n">
-        <x:v>68.5</x:v>
+        <x:v>70.3</x:v>
+      </x:c>
+      <x:c r="FH4" s="3" t="n">
+        <x:v>57.5</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:163">
+    <x:row r="5" spans="1:164">
       <x:c r="C5" s="2" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D5" s="3" t="n">
         <x:v>0.5</x:v>
@@ -2501,33 +2510,36 @@
         <x:v>49.7</x:v>
       </x:c>
       <x:c r="EZ5" s="3" t="n">
-        <x:v>71.7</x:v>
+        <x:v>62.2</x:v>
       </x:c>
       <x:c r="FA5" s="3" t="n">
-        <x:v>41.3</x:v>
+        <x:v>40.7</x:v>
       </x:c>
       <x:c r="FB5" s="3" t="n">
-        <x:v>45.2</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="FC5" s="3" t="n">
-        <x:v>73.8</x:v>
+        <x:v>77.2</x:v>
       </x:c>
       <x:c r="FD5" s="3" t="n">
-        <x:v>70.7</x:v>
+        <x:v>65.5</x:v>
       </x:c>
       <x:c r="FE5" s="3" t="n">
-        <x:v>70.5</x:v>
+        <x:v>66.4</x:v>
       </x:c>
       <x:c r="FF5" s="3" t="n">
-        <x:v>37.3</x:v>
+        <x:v>41.4</x:v>
       </x:c>
       <x:c r="FG5" s="3" t="n">
-        <x:v>58.2</x:v>
+        <x:v>60.8</x:v>
+      </x:c>
+      <x:c r="FH5" s="3" t="n">
+        <x:v>46.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:163">
+    <x:row r="6" spans="1:164">
       <x:c r="C6" s="2" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="D6" s="3" t="n">
         <x:v>0.4</x:v>
@@ -2986,33 +2998,36 @@
         <x:v>43.1</x:v>
       </x:c>
       <x:c r="EZ6" s="3" t="n">
-        <x:v>77.3</x:v>
+        <x:v>65.7</x:v>
       </x:c>
       <x:c r="FA6" s="3" t="n">
-        <x:v>45.5</x:v>
+        <x:v>36.2</x:v>
       </x:c>
       <x:c r="FB6" s="3" t="n">
-        <x:v>48.5</x:v>
+        <x:v>40.3</x:v>
       </x:c>
       <x:c r="FC6" s="3" t="n">
-        <x:v>59.9</x:v>
+        <x:v>56.7</x:v>
       </x:c>
       <x:c r="FD6" s="3" t="n">
-        <x:v>70.4</x:v>
+        <x:v>59.5</x:v>
       </x:c>
       <x:c r="FE6" s="3" t="n">
-        <x:v>70.6</x:v>
+        <x:v>59.5</x:v>
       </x:c>
       <x:c r="FF6" s="3" t="n">
-        <x:v>47.7</x:v>
+        <x:v>43.6</x:v>
       </x:c>
       <x:c r="FG6" s="3" t="n">
-        <x:v>55.9</x:v>
+        <x:v>50.8</x:v>
+      </x:c>
+      <x:c r="FH6" s="3" t="n">
+        <x:v>52.4</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:163">
+    <x:row r="7" spans="1:164">
       <x:c r="C7" s="2" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D7" s="3" t="n">
         <x:v>0.2</x:v>
@@ -3471,33 +3486,36 @@
         <x:v>6.6</x:v>
       </x:c>
       <x:c r="EZ7" s="3" t="n">
-        <x:v>-5.6</x:v>
+        <x:v>-3.5</x:v>
       </x:c>
       <x:c r="FA7" s="3" t="n">
-        <x:v>-4.2</x:v>
+        <x:v>4.4</x:v>
       </x:c>
       <x:c r="FB7" s="3" t="n">
-        <x:v>-3.3</x:v>
+        <x:v>5.7</x:v>
       </x:c>
       <x:c r="FC7" s="3" t="n">
-        <x:v>13.9</x:v>
+        <x:v>20.5</x:v>
       </x:c>
       <x:c r="FD7" s="3" t="n">
-        <x:v>0.3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="FE7" s="3" t="n">
-        <x:v>-0.1</x:v>
+        <x:v>6.9</x:v>
       </x:c>
       <x:c r="FF7" s="3" t="n">
-        <x:v>-10.4</x:v>
+        <x:v>-2.3</x:v>
       </x:c>
       <x:c r="FG7" s="3" t="n">
-        <x:v>2.3</x:v>
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="FH7" s="3" t="n">
+        <x:v>-5.7</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:163">
+    <x:row r="8" spans="1:164">
       <x:c r="C8" s="2" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D8" s="3" t="n">
         <x:v>-1.9</x:v>
@@ -3968,21 +3986,24 @@
         <x:v>28.8</x:v>
       </x:c>
       <x:c r="FD8" s="3" t="n">
-        <x:v>49</x:v>
+        <x:v>48.7</x:v>
       </x:c>
       <x:c r="FE8" s="3" t="n">
-        <x:v>35.3</x:v>
+        <x:v>32.7</x:v>
       </x:c>
       <x:c r="FF8" s="3" t="n">
-        <x:v>45.1</x:v>
+        <x:v>44.9</x:v>
       </x:c>
       <x:c r="FG8" s="3" t="n">
-        <x:v>31.2</x:v>
+        <x:v>30.8</x:v>
+      </x:c>
+      <x:c r="FH8" s="3" t="n">
+        <x:v>43.1</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:163">
+    <x:row r="9" spans="1:164">
       <x:c r="C9" s="2" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D9" s="3" t="n">
         <x:v>-1.9</x:v>
@@ -4453,21 +4474,24 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="FD9" s="3" t="n">
-        <x:v>46.2</x:v>
+        <x:v>45.9</x:v>
       </x:c>
       <x:c r="FE9" s="3" t="n">
-        <x:v>32.6</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="FF9" s="3" t="n">
-        <x:v>42.4</x:v>
+        <x:v>42.2</x:v>
       </x:c>
       <x:c r="FG9" s="3" t="n">
-        <x:v>28</x:v>
+        <x:v>27.6</x:v>
+      </x:c>
+      <x:c r="FH9" s="3" t="n">
+        <x:v>39.6</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:163">
+    <x:row r="10" spans="1:164">
       <x:c r="C10" s="2" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D10" s="3" t="n">
         <x:v>-1.2</x:v>
@@ -4938,7 +4962,7 @@
         <x:v>-28.9</x:v>
       </x:c>
       <x:c r="FD10" s="3" t="n">
-        <x:v>-37.4</x:v>
+        <x:v>-37.5</x:v>
       </x:c>
       <x:c r="FE10" s="3" t="n">
         <x:v>-20.8</x:v>
@@ -4947,15 +4971,18 @@
         <x:v>-21.5</x:v>
       </x:c>
       <x:c r="FG10" s="3" t="n">
-        <x:v>-20.9</x:v>
+        <x:v>-21.4</x:v>
+      </x:c>
+      <x:c r="FH10" s="3" t="n">
+        <x:v>-32.4</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:163">
+    <x:row r="11" spans="1:164">
       <x:c r="B11" s="2" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D11" s="3" t="n">
         <x:v>53.4</x:v>
@@ -5414,33 +5441,36 @@
         <x:v>768.9</x:v>
       </x:c>
       <x:c r="EZ11" s="3" t="n">
-        <x:v>726</x:v>
+        <x:v>718.6</x:v>
       </x:c>
       <x:c r="FA11" s="3" t="n">
-        <x:v>657.2</x:v>
+        <x:v>654</x:v>
       </x:c>
       <x:c r="FB11" s="3" t="n">
-        <x:v>648.6</x:v>
+        <x:v>644.6</x:v>
       </x:c>
       <x:c r="FC11" s="3" t="n">
-        <x:v>743.5</x:v>
+        <x:v>741.2</x:v>
       </x:c>
       <x:c r="FD11" s="3" t="n">
-        <x:v>732.8</x:v>
+        <x:v>727.5</x:v>
       </x:c>
       <x:c r="FE11" s="3" t="n">
-        <x:v>809.5</x:v>
+        <x:v>803.9</x:v>
       </x:c>
       <x:c r="FF11" s="3" t="n">
-        <x:v>749</x:v>
+        <x:v>749.2</x:v>
       </x:c>
       <x:c r="FG11" s="3" t="n">
-        <x:v>860.3</x:v>
+        <x:v>859</x:v>
+      </x:c>
+      <x:c r="FH11" s="3" t="n">
+        <x:v>858.6</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:163">
+    <x:row r="12" spans="1:164">
       <x:c r="C12" s="2" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D12" s="3" t="n">
         <x:v>49.5</x:v>
@@ -5899,33 +5929,36 @@
         <x:v>625</x:v>
       </x:c>
       <x:c r="EZ12" s="3" t="n">
-        <x:v>598.1</x:v>
+        <x:v>590.7</x:v>
       </x:c>
       <x:c r="FA12" s="3" t="n">
-        <x:v>502.5</x:v>
+        <x:v>499.3</x:v>
       </x:c>
       <x:c r="FB12" s="3" t="n">
-        <x:v>521.1</x:v>
+        <x:v>517</x:v>
       </x:c>
       <x:c r="FC12" s="3" t="n">
-        <x:v>614.1</x:v>
+        <x:v>611.8</x:v>
       </x:c>
       <x:c r="FD12" s="3" t="n">
-        <x:v>583.3</x:v>
+        <x:v>577.8</x:v>
       </x:c>
       <x:c r="FE12" s="3" t="n">
-        <x:v>619</x:v>
+        <x:v>615.5</x:v>
       </x:c>
       <x:c r="FF12" s="3" t="n">
-        <x:v>599</x:v>
+        <x:v>598.6</x:v>
       </x:c>
       <x:c r="FG12" s="3" t="n">
-        <x:v>705.3</x:v>
+        <x:v>703.7</x:v>
+      </x:c>
+      <x:c r="FH12" s="3" t="n">
+        <x:v>702.6</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:163">
+    <x:row r="13" spans="1:164">
       <x:c r="C13" s="2" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="D13" s="3" t="n">
         <x:v>40.2</x:v>
@@ -6384,33 +6417,36 @@
         <x:v>434.1</x:v>
       </x:c>
       <x:c r="EZ13" s="3" t="n">
-        <x:v>434.4</x:v>
+        <x:v>424.6</x:v>
       </x:c>
       <x:c r="FA13" s="3" t="n">
-        <x:v>361</x:v>
+        <x:v>351.7</x:v>
       </x:c>
       <x:c r="FB13" s="3" t="n">
-        <x:v>377.1</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="FC13" s="3" t="n">
-        <x:v>432.3</x:v>
+        <x:v>424.1</x:v>
       </x:c>
       <x:c r="FD13" s="3" t="n">
-        <x:v>434.4</x:v>
+        <x:v>425.6</x:v>
       </x:c>
       <x:c r="FE13" s="3" t="n">
-        <x:v>459.9</x:v>
+        <x:v>450.7</x:v>
       </x:c>
       <x:c r="FF13" s="3" t="n">
-        <x:v>431.2</x:v>
+        <x:v>425.4</x:v>
       </x:c>
       <x:c r="FG13" s="3" t="n">
-        <x:v>503.4</x:v>
+        <x:v>494.3</x:v>
+      </x:c>
+      <x:c r="FH13" s="3" t="n">
+        <x:v>516.9</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:163">
+    <x:row r="14" spans="1:164">
       <x:c r="C14" s="2" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D14" s="3" t="n">
         <x:v>9.2</x:v>
@@ -6869,33 +6905,36 @@
         <x:v>190.9</x:v>
       </x:c>
       <x:c r="EZ14" s="3" t="n">
-        <x:v>163.6</x:v>
+        <x:v>166.1</x:v>
       </x:c>
       <x:c r="FA14" s="3" t="n">
-        <x:v>141.5</x:v>
+        <x:v>147.6</x:v>
       </x:c>
       <x:c r="FB14" s="3" t="n">
-        <x:v>144</x:v>
+        <x:v>149.1</x:v>
       </x:c>
       <x:c r="FC14" s="3" t="n">
-        <x:v>181.8</x:v>
+        <x:v>187.7</x:v>
       </x:c>
       <x:c r="FD14" s="3" t="n">
-        <x:v>149</x:v>
+        <x:v>152.1</x:v>
       </x:c>
       <x:c r="FE14" s="3" t="n">
-        <x:v>159.1</x:v>
+        <x:v>164.8</x:v>
       </x:c>
       <x:c r="FF14" s="3" t="n">
-        <x:v>167.8</x:v>
+        <x:v>173.3</x:v>
       </x:c>
       <x:c r="FG14" s="3" t="n">
-        <x:v>202</x:v>
+        <x:v>209.4</x:v>
+      </x:c>
+      <x:c r="FH14" s="3" t="n">
+        <x:v>185.7</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:163">
+    <x:row r="15" spans="1:164">
       <x:c r="C15" s="2" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D15" s="3" t="n">
         <x:v>3.8</x:v>
@@ -7360,7 +7399,7 @@
         <x:v>140.9</x:v>
       </x:c>
       <x:c r="FB15" s="3" t="n">
-        <x:v>118.4</x:v>
+        <x:v>118.3</x:v>
       </x:c>
       <x:c r="FC15" s="3" t="n">
         <x:v>116.8</x:v>
@@ -7369,18 +7408,21 @@
         <x:v>137.1</x:v>
       </x:c>
       <x:c r="FE15" s="3" t="n">
-        <x:v>171.4</x:v>
+        <x:v>169.1</x:v>
       </x:c>
       <x:c r="FF15" s="3" t="n">
-        <x:v>138.4</x:v>
+        <x:v>138.7</x:v>
       </x:c>
       <x:c r="FG15" s="3" t="n">
-        <x:v>137.1</x:v>
+        <x:v>137.7</x:v>
+      </x:c>
+      <x:c r="FH15" s="3" t="n">
+        <x:v>141.3</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:163">
+    <x:row r="16" spans="1:164">
       <x:c r="C16" s="2" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D16" s="3" t="n">
         <x:v>3.8</x:v>
@@ -7839,7 +7881,7 @@
         <x:v>119.4</x:v>
       </x:c>
       <x:c r="EZ16" s="3" t="n">
-        <x:v>107.3</x:v>
+        <x:v>107.2</x:v>
       </x:c>
       <x:c r="FA16" s="3" t="n">
         <x:v>132.6</x:v>
@@ -7854,18 +7896,21 @@
         <x:v>129.8</x:v>
       </x:c>
       <x:c r="FE16" s="3" t="n">
-        <x:v>163.6</x:v>
+        <x:v>161.3</x:v>
       </x:c>
       <x:c r="FF16" s="3" t="n">
-        <x:v>130.1</x:v>
+        <x:v>130.5</x:v>
       </x:c>
       <x:c r="FG16" s="3" t="n">
-        <x:v>126.3</x:v>
+        <x:v>126.9</x:v>
+      </x:c>
+      <x:c r="FH16" s="3" t="n">
+        <x:v>131.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:163">
+    <x:row r="17" spans="1:164">
       <x:c r="C17" s="2" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D17" s="3" t="n">
         <x:v>0.1</x:v>
@@ -8336,24 +8381,27 @@
         <x:v>12.7</x:v>
       </x:c>
       <x:c r="FD17" s="3" t="n">
-        <x:v>12.4</x:v>
+        <x:v>12.6</x:v>
       </x:c>
       <x:c r="FE17" s="3" t="n">
-        <x:v>19.1</x:v>
+        <x:v>19.3</x:v>
       </x:c>
       <x:c r="FF17" s="3" t="n">
-        <x:v>11.7</x:v>
+        <x:v>11.9</x:v>
       </x:c>
       <x:c r="FG17" s="3" t="n">
-        <x:v>17.9</x:v>
+        <x:v>17.6</x:v>
+      </x:c>
+      <x:c r="FH17" s="3" t="n">
+        <x:v>14.7</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:163">
+    <x:row r="18" spans="1:164">
       <x:c r="B18" s="2" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D18" s="3" t="n">
         <x:v>56</x:v>
@@ -8812,33 +8860,36 @@
         <x:v>714.8</x:v>
       </x:c>
       <x:c r="EZ18" s="3" t="n">
-        <x:v>643.2</x:v>
+        <x:v>645.3</x:v>
       </x:c>
       <x:c r="FA18" s="3" t="n">
-        <x:v>586.4</x:v>
+        <x:v>583.8</x:v>
       </x:c>
       <x:c r="FB18" s="3" t="n">
-        <x:v>573.1</x:v>
+        <x:v>568.3</x:v>
       </x:c>
       <x:c r="FC18" s="3" t="n">
-        <x:v>669.9</x:v>
+        <x:v>664.2</x:v>
       </x:c>
       <x:c r="FD18" s="3" t="n">
-        <x:v>650.5</x:v>
+        <x:v>650.7</x:v>
       </x:c>
       <x:c r="FE18" s="3" t="n">
-        <x:v>724.5</x:v>
+        <x:v>725.6</x:v>
       </x:c>
       <x:c r="FF18" s="3" t="n">
-        <x:v>688.2</x:v>
+        <x:v>684.5</x:v>
       </x:c>
       <x:c r="FG18" s="3" t="n">
-        <x:v>791.8</x:v>
+        <x:v>788.7</x:v>
+      </x:c>
+      <x:c r="FH18" s="3" t="n">
+        <x:v>801.1</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:163">
+    <x:row r="19" spans="1:164">
       <x:c r="C19" s="2" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D19" s="3" t="n">
         <x:v>48.9</x:v>
@@ -9297,33 +9348,36 @@
         <x:v>575.3</x:v>
       </x:c>
       <x:c r="EZ19" s="3" t="n">
-        <x:v>526.3</x:v>
+        <x:v>528.5</x:v>
       </x:c>
       <x:c r="FA19" s="3" t="n">
-        <x:v>461.2</x:v>
+        <x:v>458.6</x:v>
       </x:c>
       <x:c r="FB19" s="3" t="n">
-        <x:v>475.9</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="FC19" s="3" t="n">
-        <x:v>540.3</x:v>
+        <x:v>534.6</x:v>
       </x:c>
       <x:c r="FD19" s="3" t="n">
-        <x:v>512.6</x:v>
+        <x:v>512.2</x:v>
       </x:c>
       <x:c r="FE19" s="3" t="n">
-        <x:v>548.5</x:v>
+        <x:v>549</x:v>
       </x:c>
       <x:c r="FF19" s="3" t="n">
-        <x:v>561.7</x:v>
+        <x:v>557.3</x:v>
       </x:c>
       <x:c r="FG19" s="3" t="n">
-        <x:v>647.1</x:v>
+        <x:v>642.9</x:v>
+      </x:c>
+      <x:c r="FH19" s="3" t="n">
+        <x:v>655.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:163">
+    <x:row r="20" spans="1:164">
       <x:c r="C20" s="2" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="D20" s="3" t="n">
         <x:v>39.9</x:v>
@@ -9782,33 +9836,36 @@
         <x:v>391</x:v>
       </x:c>
       <x:c r="EZ20" s="3" t="n">
-        <x:v>357.1</x:v>
+        <x:v>358.8</x:v>
       </x:c>
       <x:c r="FA20" s="3" t="n">
-        <x:v>315.4</x:v>
+        <x:v>315.5</x:v>
       </x:c>
       <x:c r="FB20" s="3" t="n">
-        <x:v>328.6</x:v>
+        <x:v>327.7</x:v>
       </x:c>
       <x:c r="FC20" s="3" t="n">
-        <x:v>372.4</x:v>
+        <x:v>367.4</x:v>
       </x:c>
       <x:c r="FD20" s="3" t="n">
-        <x:v>363.9</x:v>
+        <x:v>366.1</x:v>
       </x:c>
       <x:c r="FE20" s="3" t="n">
-        <x:v>389.3</x:v>
+        <x:v>391.2</x:v>
       </x:c>
       <x:c r="FF20" s="3" t="n">
-        <x:v>383.4</x:v>
+        <x:v>381.7</x:v>
       </x:c>
       <x:c r="FG20" s="3" t="n">
-        <x:v>447.5</x:v>
+        <x:v>443.4</x:v>
+      </x:c>
+      <x:c r="FH20" s="3" t="n">
+        <x:v>464.4</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:163">
+    <x:row r="21" spans="1:164">
       <x:c r="C21" s="2" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D21" s="3" t="n">
         <x:v>9</x:v>
@@ -10267,33 +10324,36 @@
         <x:v>184.3</x:v>
       </x:c>
       <x:c r="EZ21" s="3" t="n">
-        <x:v>169.2</x:v>
+        <x:v>169.6</x:v>
       </x:c>
       <x:c r="FA21" s="3" t="n">
-        <x:v>145.7</x:v>
+        <x:v>143.1</x:v>
       </x:c>
       <x:c r="FB21" s="3" t="n">
-        <x:v>147.2</x:v>
+        <x:v>143.4</x:v>
       </x:c>
       <x:c r="FC21" s="3" t="n">
-        <x:v>167.9</x:v>
+        <x:v>167.2</x:v>
       </x:c>
       <x:c r="FD21" s="3" t="n">
-        <x:v>148.7</x:v>
+        <x:v>146.1</x:v>
       </x:c>
       <x:c r="FE21" s="3" t="n">
-        <x:v>159.2</x:v>
+        <x:v>157.9</x:v>
       </x:c>
       <x:c r="FF21" s="3" t="n">
-        <x:v>178.3</x:v>
+        <x:v>175.5</x:v>
       </x:c>
       <x:c r="FG21" s="3" t="n">
-        <x:v>199.7</x:v>
+        <x:v>199.5</x:v>
+      </x:c>
+      <x:c r="FH21" s="3" t="n">
+        <x:v>191.4</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:163">
+    <x:row r="22" spans="1:164">
       <x:c r="C22" s="2" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D22" s="3" t="n">
         <x:v>5.7</x:v>
@@ -10764,21 +10824,24 @@
         <x:v>87.9</x:v>
       </x:c>
       <x:c r="FD22" s="3" t="n">
-        <x:v>88.1</x:v>
+        <x:v>88.4</x:v>
       </x:c>
       <x:c r="FE22" s="3" t="n">
-        <x:v>136.1</x:v>
+        <x:v>136.5</x:v>
       </x:c>
       <x:c r="FF22" s="3" t="n">
-        <x:v>93.3</x:v>
+        <x:v>93.8</x:v>
       </x:c>
       <x:c r="FG22" s="3" t="n">
-        <x:v>105.9</x:v>
+        <x:v>106.9</x:v>
+      </x:c>
+      <x:c r="FH22" s="3" t="n">
+        <x:v>98.2</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:163">
+    <x:row r="23" spans="1:164">
       <x:c r="C23" s="2" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D23" s="3" t="n">
         <x:v>5.7</x:v>
@@ -11249,21 +11312,24 @@
         <x:v>82.4</x:v>
       </x:c>
       <x:c r="FD23" s="3" t="n">
-        <x:v>83.6</x:v>
+        <x:v>83.9</x:v>
       </x:c>
       <x:c r="FE23" s="3" t="n">
-        <x:v>131</x:v>
+        <x:v>131.3</x:v>
       </x:c>
       <x:c r="FF23" s="3" t="n">
-        <x:v>87.8</x:v>
+        <x:v>88.3</x:v>
       </x:c>
       <x:c r="FG23" s="3" t="n">
-        <x:v>98.3</x:v>
+        <x:v>99.3</x:v>
+      </x:c>
+      <x:c r="FH23" s="3" t="n">
+        <x:v>92.2</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:163">
+    <x:row r="24" spans="1:164">
       <x:c r="C24" s="2" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D24" s="3" t="n">
         <x:v>1.4</x:v>
@@ -11734,146 +11800,149 @@
         <x:v>41.6</x:v>
       </x:c>
       <x:c r="FD24" s="3" t="n">
-        <x:v>49.9</x:v>
+        <x:v>50.1</x:v>
       </x:c>
       <x:c r="FE24" s="3" t="n">
-        <x:v>39.9</x:v>
+        <x:v>40.1</x:v>
       </x:c>
       <x:c r="FF24" s="3" t="n">
-        <x:v>33.2</x:v>
+        <x:v>33.4</x:v>
       </x:c>
       <x:c r="FG24" s="3" t="n">
-        <x:v>38.7</x:v>
+        <x:v>38.9</x:v>
+      </x:c>
+      <x:c r="FH24" s="3" t="n">
+        <x:v>47.1</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:163">
+    <x:row r="26" spans="1:164">
       <x:c r="A26" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:163">
+    <x:row r="27" spans="1:164">
       <x:c r="A27" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:163">
+    <x:row r="28" spans="1:164">
       <x:c r="A28" s="4" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:163">
+    <x:row r="31" spans="1:164">
       <x:c r="A31" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:163">
+    <x:row r="32" spans="1:164">
       <x:c r="A32" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:163">
+    <x:row r="34" spans="1:164">
       <x:c r="A34" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:163">
+    <x:row r="35" spans="1:164">
       <x:c r="A35" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:163">
+    <x:row r="37" spans="1:164">
       <x:c r="A37" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:163">
+    <x:row r="38" spans="1:164">
       <x:c r="A38" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:163">
+    <x:row r="39" spans="1:164">
       <x:c r="A39" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:163">
+    <x:row r="40" spans="1:164">
       <x:c r="A40" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:163">
+    <x:row r="42" spans="1:164">
       <x:c r="A42" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:163">
+    <x:row r="43" spans="1:164">
       <x:c r="A43" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:163">
+    <x:row r="44" spans="1:164">
       <x:c r="A44" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:163">
+    <x:row r="46" spans="1:164">
       <x:c r="A46" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:163">
+    <x:row r="47" spans="1:164">
       <x:c r="A47" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:163">
+    <x:row r="48" spans="1:164">
       <x:c r="A48" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
-    <x:row r="52" spans="1:163">
+    <x:row r="52" spans="1:164">
       <x:c r="A52" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
-    <x:row r="54" spans="1:163">
+    <x:row r="54" spans="1:164">
       <x:c r="A54" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
-    <x:row r="55" spans="1:163">
+    <x:row r="55" spans="1:164">
       <x:c r="A55" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
-    <x:row r="57" spans="1:163">
+    <x:row r="57" spans="1:164">
       <x:c r="A57" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
-    <x:row r="64" spans="1:163">
+    <x:row r="64" spans="1:164">
       <x:c r="A64" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
-    <x:row r="65" spans="1:163">
+    <x:row r="65" spans="1:164">
       <x:c r="A65" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
-    <x:row r="67" spans="1:163">
+    <x:row r="67" spans="1:164">
       <x:c r="A67" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
-    <x:row r="68" spans="1:163">
+    <x:row r="68" spans="1:164">
       <x:c r="A68" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="1">
-    <x:mergeCell ref="A28:FG28"/>
+    <x:mergeCell ref="A28:FH28"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
